--- a/Code/Results/Cases/Case_3_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.90384061329425</v>
+        <v>15.37287688724919</v>
       </c>
       <c r="C2">
-        <v>14.8600822132271</v>
+        <v>10.88001358099455</v>
       </c>
       <c r="D2">
-        <v>3.587166885713788</v>
+        <v>4.971457173895673</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.67878401138237</v>
+        <v>26.97504469970814</v>
       </c>
       <c r="G2">
-        <v>33.1258504490847</v>
+        <v>33.82363493010849</v>
       </c>
       <c r="H2">
-        <v>10.36520915327977</v>
+        <v>15.20035226987862</v>
       </c>
       <c r="I2">
-        <v>15.75112553208068</v>
+        <v>23.49204998432765</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.713816043930978</v>
+        <v>10.83551531785542</v>
       </c>
       <c r="M2">
-        <v>12.30187629296404</v>
+        <v>15.29865013439652</v>
       </c>
       <c r="N2">
-        <v>11.84873157124948</v>
+        <v>18.16891629254204</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.46989333030379</v>
+        <v>14.89161267742864</v>
       </c>
       <c r="C3">
-        <v>14.0572458497303</v>
+        <v>10.52710311849199</v>
       </c>
       <c r="D3">
-        <v>3.578664904993937</v>
+        <v>4.967978970695796</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.71610138060024</v>
+        <v>26.8725176172955</v>
       </c>
       <c r="G3">
-        <v>31.57327628796766</v>
+        <v>33.59216657130011</v>
       </c>
       <c r="H3">
-        <v>10.20828390804484</v>
+        <v>15.22497386548312</v>
       </c>
       <c r="I3">
-        <v>15.66023114834508</v>
+        <v>23.56375886033323</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.651674865944046</v>
+        <v>10.85095501459578</v>
       </c>
       <c r="M3">
-        <v>11.73981512931134</v>
+        <v>15.21569032442045</v>
       </c>
       <c r="N3">
-        <v>12.07673242613684</v>
+        <v>18.23483456406973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.53884699621945</v>
+        <v>14.59109853562796</v>
       </c>
       <c r="C4">
-        <v>13.54155094235776</v>
+        <v>10.30221136720969</v>
       </c>
       <c r="D4">
-        <v>3.573568873404426</v>
+        <v>4.965917510826777</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.12988010693196</v>
+        <v>26.81820148456503</v>
       </c>
       <c r="G4">
-        <v>30.62159966457616</v>
+        <v>33.46245979942656</v>
       </c>
       <c r="H4">
-        <v>10.12040902472923</v>
+        <v>15.24354287142106</v>
       </c>
       <c r="I4">
-        <v>15.62116676829559</v>
+        <v>23.61347721000709</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.616846486492134</v>
+        <v>10.86202135188264</v>
       </c>
       <c r="M4">
-        <v>11.38669530171564</v>
+        <v>15.16731218757312</v>
       </c>
       <c r="N4">
-        <v>12.21946911799911</v>
+        <v>18.27717364278233</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14661745360072</v>
+        <v>14.4675744116358</v>
       </c>
       <c r="C5">
-        <v>13.32575434521699</v>
+        <v>10.20858290751569</v>
       </c>
       <c r="D5">
-        <v>3.571525047338107</v>
+        <v>4.96509641906095</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.8925332886846</v>
+        <v>26.7982543615741</v>
       </c>
       <c r="G5">
-        <v>30.23472533475566</v>
+        <v>33.41277521257366</v>
       </c>
       <c r="H5">
-        <v>10.08669338338753</v>
+        <v>15.25197571479289</v>
       </c>
       <c r="I5">
-        <v>15.60928452666032</v>
+        <v>23.63516327514508</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.603480832635233</v>
+        <v>10.86692996637586</v>
       </c>
       <c r="M5">
-        <v>11.240971748835</v>
+        <v>15.14825688947404</v>
       </c>
       <c r="N5">
-        <v>12.27835649490236</v>
+        <v>18.29489763923105</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08071089611542</v>
+        <v>14.44700527082719</v>
       </c>
       <c r="C6">
-        <v>13.28958309392566</v>
+        <v>10.19291867488946</v>
       </c>
       <c r="D6">
-        <v>3.571187703907952</v>
+        <v>4.964961232461156</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.85322505663949</v>
+        <v>26.79507464553622</v>
       </c>
       <c r="G6">
-        <v>30.17055897835413</v>
+        <v>33.40471802920229</v>
       </c>
       <c r="H6">
-        <v>10.0812201903472</v>
+        <v>15.25342821153426</v>
       </c>
       <c r="I6">
-        <v>15.6075501167804</v>
+        <v>23.63885017062447</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.601311140268843</v>
+        <v>10.86776913822684</v>
       </c>
       <c r="M6">
-        <v>11.21667039827098</v>
+        <v>15.1451330219801</v>
       </c>
       <c r="N6">
-        <v>12.2881791300165</v>
+        <v>18.29786915551216</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53360928929476</v>
+        <v>14.58943667318811</v>
       </c>
       <c r="C7">
-        <v>13.53866338132633</v>
+        <v>10.30095658002737</v>
       </c>
       <c r="D7">
-        <v>3.573541174471637</v>
+        <v>4.965906360078102</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.12667247592021</v>
+        <v>26.81792359696381</v>
       </c>
       <c r="G7">
-        <v>30.61637757173841</v>
+        <v>33.46177683168047</v>
       </c>
       <c r="H7">
-        <v>10.11994589890833</v>
+        <v>15.24365309690754</v>
       </c>
       <c r="I7">
-        <v>15.62099040896894</v>
+        <v>23.61376391122245</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.616662896515655</v>
+        <v>10.8620859355707</v>
       </c>
       <c r="M7">
-        <v>11.38473713722471</v>
+        <v>15.16705251226622</v>
       </c>
       <c r="N7">
-        <v>12.2202603342163</v>
+        <v>18.27741076786245</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.41985734558891</v>
+        <v>15.20809305775867</v>
       </c>
       <c r="C8">
-        <v>14.58802277013938</v>
+        <v>10.76007786051908</v>
       </c>
       <c r="D8">
-        <v>3.584210565985452</v>
+        <v>4.970242685496525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.34602235740553</v>
+        <v>26.93791131313776</v>
       </c>
       <c r="G8">
-        <v>32.5904893311129</v>
+        <v>33.74127979083777</v>
       </c>
       <c r="H8">
-        <v>10.30932071087079</v>
+        <v>15.20812434685723</v>
       </c>
       <c r="I8">
-        <v>15.71620684501173</v>
+        <v>23.51559150469898</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.691694097676206</v>
+        <v>10.84050976494843</v>
       </c>
       <c r="M8">
-        <v>12.10984589962407</v>
+        <v>15.26952397660789</v>
       </c>
       <c r="N8">
-        <v>11.92679620889992</v>
+        <v>18.19125874561609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72186960095999</v>
+        <v>16.37347171382401</v>
       </c>
       <c r="C9">
-        <v>16.46328334164933</v>
+        <v>11.59223655185036</v>
       </c>
       <c r="D9">
-        <v>3.606052457392764</v>
+        <v>4.979321157225701</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.76351001997257</v>
+        <v>27.24089130024068</v>
       </c>
       <c r="G9">
-        <v>36.45469534225811</v>
+        <v>34.38537714873328</v>
       </c>
       <c r="H9">
-        <v>10.74939383646029</v>
+        <v>15.16591742959815</v>
       </c>
       <c r="I9">
-        <v>16.04324650042557</v>
+        <v>23.36843273800713</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.865593404670656</v>
+        <v>10.8107798187471</v>
       </c>
       <c r="M9">
-        <v>13.50448846022229</v>
+        <v>15.49005466915034</v>
       </c>
       <c r="N9">
-        <v>11.3715782734465</v>
+        <v>18.03704290897214</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.9124448457254</v>
+        <v>17.1908758352347</v>
       </c>
       <c r="C10">
-        <v>17.72859536303521</v>
+        <v>12.15846224946766</v>
       </c>
       <c r="D10">
-        <v>3.62257877823594</v>
+        <v>4.986324058140927</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.5421163529521</v>
+        <v>27.50341624393025</v>
       </c>
       <c r="G10">
-        <v>39.26872578646118</v>
+        <v>34.91330855392459</v>
       </c>
       <c r="H10">
-        <v>11.1163231727659</v>
+        <v>15.15174730016273</v>
       </c>
       <c r="I10">
-        <v>16.37876177450336</v>
+        <v>23.28825383375938</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.010132404829658</v>
+        <v>10.79659735028879</v>
       </c>
       <c r="M10">
-        <v>14.71700043784181</v>
+        <v>15.66299471769649</v>
       </c>
       <c r="N10">
-        <v>10.9737761152572</v>
+        <v>17.93261996911379</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8593815269618</v>
+        <v>17.55256866878983</v>
       </c>
       <c r="C11">
-        <v>18.27993267495712</v>
+        <v>12.40562512250402</v>
       </c>
       <c r="D11">
-        <v>3.630186201486274</v>
+        <v>4.989578452455051</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.34980129865157</v>
+        <v>27.63116731956809</v>
       </c>
       <c r="G11">
-        <v>40.54075674590479</v>
+        <v>35.16443608934577</v>
       </c>
       <c r="H11">
-        <v>11.29303763916159</v>
+        <v>15.14897218648802</v>
       </c>
       <c r="I11">
-        <v>16.55400511384481</v>
+        <v>23.25790192863971</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.079618077348497</v>
+        <v>10.79180555523299</v>
       </c>
       <c r="M11">
-        <v>15.24209883222237</v>
+        <v>15.74380755154756</v>
       </c>
       <c r="N11">
-        <v>10.79446860508243</v>
+        <v>17.88702221980776</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.21096372152047</v>
+        <v>17.6879474961472</v>
       </c>
       <c r="C12">
-        <v>18.48525159185154</v>
+        <v>12.49767769076698</v>
       </c>
       <c r="D12">
-        <v>3.63307873850701</v>
+        <v>4.990820365954947</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.65534215624159</v>
+        <v>27.68070725545829</v>
       </c>
       <c r="G12">
-        <v>41.02115881163737</v>
+        <v>35.26102502619122</v>
       </c>
       <c r="H12">
-        <v>11.3613883424709</v>
+        <v>15.14844986295665</v>
       </c>
       <c r="I12">
-        <v>16.62376579968454</v>
+        <v>23.24729302372407</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.106474220641057</v>
+        <v>10.7902293262656</v>
       </c>
       <c r="M12">
-        <v>15.43720148264937</v>
+        <v>15.77469674464882</v>
       </c>
       <c r="N12">
-        <v>10.72676006614217</v>
+        <v>17.87002787612824</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.13555355429936</v>
+        <v>17.65886367728815</v>
       </c>
       <c r="C13">
-        <v>18.44118579708459</v>
+        <v>12.4779217870702</v>
       </c>
       <c r="D13">
-        <v>3.632455271013783</v>
+        <v>4.990552478552345</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.58955356494872</v>
+        <v>27.66998677135223</v>
       </c>
       <c r="G13">
-        <v>40.91775408484578</v>
+        <v>35.24015788487949</v>
       </c>
       <c r="H13">
-        <v>11.34660367125892</v>
+        <v>15.14853883986467</v>
       </c>
       <c r="I13">
-        <v>16.608588085846</v>
+        <v>23.24953842705024</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.100665993429447</v>
+        <v>10.79055820262762</v>
       </c>
       <c r="M13">
-        <v>15.39534788143926</v>
+        <v>15.76803177052389</v>
       </c>
       <c r="N13">
-        <v>10.74133458185015</v>
+        <v>17.87367581272009</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.88844599565295</v>
+        <v>17.56373883948282</v>
       </c>
       <c r="C14">
-        <v>18.29689352814176</v>
+        <v>12.41322949646187</v>
       </c>
       <c r="D14">
-        <v>3.630423942013978</v>
+        <v>4.989680436077084</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.3749450345132</v>
+        <v>27.63521988813893</v>
       </c>
       <c r="G14">
-        <v>40.58030597076483</v>
+        <v>35.17235310838582</v>
       </c>
       <c r="H14">
-        <v>11.29863203413601</v>
+        <v>15.14891861893286</v>
       </c>
       <c r="I14">
-        <v>16.55967540339977</v>
+        <v>23.25701137279368</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.081816618951065</v>
+        <v>10.79167110399438</v>
       </c>
       <c r="M14">
-        <v>15.25822461148471</v>
+        <v>15.746343190486</v>
       </c>
       <c r="N14">
-        <v>10.78889462781482</v>
+        <v>17.8856186307261</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.7361774357476</v>
+        <v>17.50526199609681</v>
       </c>
       <c r="C15">
-        <v>18.20806076102368</v>
+        <v>12.37340146798354</v>
       </c>
       <c r="D15">
-        <v>3.629181197654801</v>
+        <v>4.989147517836753</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.24344807324917</v>
+        <v>27.61407462031816</v>
       </c>
       <c r="G15">
-        <v>40.37343909897569</v>
+        <v>35.13101249787173</v>
       </c>
       <c r="H15">
-        <v>11.269435351132</v>
+        <v>15.14922009215347</v>
       </c>
       <c r="I15">
-        <v>16.53016202000034</v>
+        <v>23.26170410749558</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.070341801089659</v>
+        <v>10.79238381239852</v>
       </c>
       <c r="M15">
-        <v>15.17374757668818</v>
+        <v>15.7330950755573</v>
       </c>
       <c r="N15">
-        <v>10.81805000274987</v>
+        <v>17.8929694032114</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.84957346216828</v>
+        <v>17.16702296891215</v>
       </c>
       <c r="C16">
-        <v>17.69207805873805</v>
+        <v>12.14209601433011</v>
       </c>
       <c r="D16">
-        <v>3.622083318439734</v>
+        <v>4.986112730002554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.48929344402579</v>
+        <v>27.49523212128922</v>
       </c>
       <c r="G16">
-        <v>39.18542028787482</v>
+        <v>34.89711032381386</v>
       </c>
       <c r="H16">
-        <v>11.10497362197754</v>
+        <v>15.15200259413012</v>
       </c>
       <c r="I16">
-        <v>16.36777705725002</v>
+        <v>23.29036097123453</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.005667038545768</v>
+        <v>10.79694387639152</v>
       </c>
       <c r="M16">
-        <v>14.68215679573129</v>
+        <v>15.65775473281232</v>
       </c>
       <c r="N16">
-        <v>10.98552367190392</v>
+        <v>17.93563810074843</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29306248672795</v>
+        <v>16.95683021754385</v>
       </c>
       <c r="C17">
-        <v>17.36934108968066</v>
+        <v>11.99749608606909</v>
       </c>
       <c r="D17">
-        <v>3.617751089494009</v>
+        <v>4.984268350217596</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.02618994395543</v>
+        <v>27.4244354693027</v>
       </c>
       <c r="G17">
-        <v>38.45442337216178</v>
+        <v>34.75636906024148</v>
       </c>
       <c r="H17">
-        <v>11.0066075392857</v>
+        <v>15.15465036763205</v>
       </c>
       <c r="I17">
-        <v>16.27405857409858</v>
+        <v>23.30951219799558</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.966952085072998</v>
+        <v>10.80016622185868</v>
       </c>
       <c r="M17">
-        <v>14.37384577076118</v>
+        <v>15.61206970858768</v>
       </c>
       <c r="N17">
-        <v>11.0886550437767</v>
+        <v>17.9623008433738</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.96829871192351</v>
+        <v>16.83498438412391</v>
       </c>
       <c r="C18">
-        <v>17.18142526752476</v>
+        <v>11.91334792489677</v>
       </c>
       <c r="D18">
-        <v>3.615267787867171</v>
+        <v>4.983214002123826</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.75969571108334</v>
+        <v>27.38450110766103</v>
       </c>
       <c r="G18">
-        <v>38.03321463631394</v>
+        <v>34.67645618853174</v>
       </c>
       <c r="H18">
-        <v>10.95095060737381</v>
+        <v>15.15651880367099</v>
       </c>
       <c r="I18">
-        <v>16.22227446668955</v>
+        <v>23.32110345262678</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.945035354036197</v>
+        <v>10.80217589187105</v>
       </c>
       <c r="M18">
-        <v>14.19401673225993</v>
+        <v>15.58599574170109</v>
       </c>
       <c r="N18">
-        <v>11.14813221526686</v>
+        <v>17.97781591458396</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.85753290858149</v>
+        <v>16.79357066742994</v>
       </c>
       <c r="C19">
-        <v>17.11740695947133</v>
+        <v>11.8846902725368</v>
       </c>
       <c r="D19">
-        <v>3.614428477740625</v>
+        <v>4.98285814306247</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.66944721716726</v>
+        <v>27.37111601101071</v>
       </c>
       <c r="G19">
-        <v>37.89047544281178</v>
+        <v>34.64957983094676</v>
       </c>
       <c r="H19">
-        <v>10.93226353406209</v>
+        <v>15.15721073941997</v>
       </c>
       <c r="I19">
-        <v>16.20510082071507</v>
+        <v>23.32512683849269</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.937674832708531</v>
+        <v>10.80288317993124</v>
       </c>
       <c r="M19">
-        <v>14.13269894542526</v>
+        <v>15.57720301105652</v>
       </c>
       <c r="N19">
-        <v>11.16829879154661</v>
+        <v>17.9830998995106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.35278682015922</v>
+        <v>16.97930472733818</v>
       </c>
       <c r="C20">
-        <v>17.40393343348125</v>
+        <v>12.01299056848937</v>
       </c>
       <c r="D20">
-        <v>3.618211393349879</v>
+        <v>4.984464018313046</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.07550242813172</v>
+        <v>27.4318907842946</v>
       </c>
       <c r="G20">
-        <v>38.53231892408346</v>
+        <v>34.7712444053715</v>
       </c>
       <c r="H20">
-        <v>11.01698332456274</v>
+        <v>15.15433274304306</v>
       </c>
       <c r="I20">
-        <v>16.28381453672744</v>
+        <v>23.30741387320608</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.971036976128274</v>
+        <v>10.79980702760123</v>
       </c>
       <c r="M20">
-        <v>14.40692393525861</v>
+        <v>15.61691211246976</v>
       </c>
       <c r="N20">
-        <v>11.07766043163997</v>
+        <v>17.95944399504615</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.9612164772124</v>
+        <v>17.59172330958003</v>
       </c>
       <c r="C21">
-        <v>18.33936928803394</v>
+        <v>12.43227338680802</v>
       </c>
       <c r="D21">
-        <v>3.631020281012661</v>
+        <v>4.989936319749264</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.43798985902911</v>
+        <v>27.64540047469296</v>
       </c>
       <c r="G21">
-        <v>40.67945823465002</v>
+        <v>35.19222920584782</v>
       </c>
       <c r="H21">
-        <v>11.31268338192413</v>
+        <v>15.1487927200869</v>
       </c>
       <c r="I21">
-        <v>16.57394882376548</v>
+        <v>23.25479234337838</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.087338335293723</v>
+        <v>10.79133775322722</v>
       </c>
       <c r="M21">
-        <v>15.29860200131106</v>
+        <v>15.75270602783371</v>
       </c>
       <c r="N21">
-        <v>10.77492028574852</v>
+        <v>17.88210334991791</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.97166770674481</v>
+        <v>17.98267803555742</v>
       </c>
       <c r="C22">
-        <v>18.93058321578886</v>
+        <v>12.69729028757458</v>
       </c>
       <c r="D22">
-        <v>3.639459862534183</v>
+        <v>4.993568262974951</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.32661947525945</v>
+        <v>27.7917049239385</v>
       </c>
       <c r="G22">
-        <v>42.0752260718543</v>
+        <v>35.47602420657</v>
       </c>
       <c r="H22">
-        <v>11.51430448423751</v>
+        <v>15.14825288441574</v>
       </c>
       <c r="I22">
-        <v>16.78345011404626</v>
+        <v>23.22555968605019</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.166518869749222</v>
+        <v>10.7871914844836</v>
       </c>
       <c r="M22">
-        <v>15.85959637620004</v>
+        <v>15.84311883859615</v>
       </c>
       <c r="N22">
-        <v>10.57815309488458</v>
+        <v>17.83314468065243</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.43605618780617</v>
+        <v>17.77490723291657</v>
       </c>
       <c r="C23">
-        <v>18.61687168551186</v>
+        <v>12.55668345295368</v>
       </c>
       <c r="D23">
-        <v>3.634949571663228</v>
+        <v>4.991624862565872</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.85253262174287</v>
+        <v>27.71301251310339</v>
       </c>
       <c r="G23">
-        <v>41.33098666339643</v>
+        <v>35.32379426777555</v>
       </c>
       <c r="H23">
-        <v>11.40592173238026</v>
+        <v>15.14825896375124</v>
       </c>
       <c r="I23">
-        <v>16.66976871528061</v>
+        <v>23.24068832357654</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.123966338027913</v>
+        <v>10.78927748172408</v>
       </c>
       <c r="M23">
-        <v>15.56215142664329</v>
+        <v>15.79471858853171</v>
       </c>
       <c r="N23">
-        <v>10.68308794518961</v>
+        <v>17.85912999856528</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.32580046604373</v>
+        <v>16.96914711644719</v>
       </c>
       <c r="C24">
-        <v>17.38830161892939</v>
+        <v>12.00598867343476</v>
       </c>
       <c r="D24">
-        <v>3.61800326698369</v>
+        <v>4.984375537998297</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.05320902345313</v>
+        <v>27.42851784281267</v>
       </c>
       <c r="G24">
-        <v>38.49710529006728</v>
+        <v>34.76451613682535</v>
       </c>
       <c r="H24">
-        <v>11.01228964597544</v>
+        <v>15.15447526274243</v>
       </c>
       <c r="I24">
-        <v>16.27939734901776</v>
+        <v>23.30836071645545</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.969189135187842</v>
+        <v>10.79996892994571</v>
       </c>
       <c r="M24">
-        <v>14.39197732863297</v>
+        <v>15.6147222652459</v>
       </c>
       <c r="N24">
-        <v>11.08263051428923</v>
+        <v>17.96073499570139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.8704191406931</v>
+        <v>16.06437962617909</v>
       </c>
       <c r="C25">
-        <v>15.97570932994261</v>
+        <v>11.37481366097133</v>
       </c>
       <c r="D25">
-        <v>3.600054016453784</v>
+        <v>4.976805449631449</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.10825429749583</v>
+        <v>27.15180690144591</v>
       </c>
       <c r="G25">
-        <v>35.41252084241798</v>
+        <v>34.20122582373402</v>
       </c>
       <c r="H25">
-        <v>10.62279602197737</v>
+        <v>15.17438417475361</v>
       </c>
       <c r="I25">
-        <v>15.93872279061837</v>
+        <v>23.40335666808934</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.815633580764602</v>
+        <v>10.81747643131619</v>
       </c>
       <c r="M25">
-        <v>13.10409100941211</v>
+        <v>15.42840128529821</v>
       </c>
       <c r="N25">
-        <v>11.51983224045305</v>
+        <v>18.07719594383341</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.37287688724919</v>
+        <v>20.90384061329427</v>
       </c>
       <c r="C2">
-        <v>10.88001358099455</v>
+        <v>14.86008221322702</v>
       </c>
       <c r="D2">
-        <v>4.971457173895673</v>
+        <v>3.587166885713895</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.97504469970814</v>
+        <v>23.67878401138246</v>
       </c>
       <c r="G2">
-        <v>33.82363493010849</v>
+        <v>33.12585044908489</v>
       </c>
       <c r="H2">
-        <v>15.20035226987862</v>
+        <v>10.36520915327985</v>
       </c>
       <c r="I2">
-        <v>23.49204998432765</v>
+        <v>15.75112553208078</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.83551531785542</v>
+        <v>6.71381604393097</v>
       </c>
       <c r="M2">
-        <v>15.29865013439652</v>
+        <v>12.30187629296406</v>
       </c>
       <c r="N2">
-        <v>18.16891629254204</v>
+        <v>11.84873157124951</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.89161267742864</v>
+        <v>19.46989333030387</v>
       </c>
       <c r="C3">
-        <v>10.52710311849199</v>
+        <v>14.05724584973061</v>
       </c>
       <c r="D3">
-        <v>4.967978970695796</v>
+        <v>3.578664904994006</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.8725176172955</v>
+        <v>22.71610138060008</v>
       </c>
       <c r="G3">
-        <v>33.59216657130011</v>
+        <v>31.57327628796748</v>
       </c>
       <c r="H3">
-        <v>15.22497386548312</v>
+        <v>10.20828390804472</v>
       </c>
       <c r="I3">
-        <v>23.56375886033323</v>
+        <v>15.66023114834492</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.85095501459578</v>
+        <v>6.651674865944019</v>
       </c>
       <c r="M3">
-        <v>15.21569032442045</v>
+        <v>11.73981512931131</v>
       </c>
       <c r="N3">
-        <v>18.23483456406973</v>
+        <v>12.07673242613674</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.59109853562796</v>
+        <v>18.53884699621945</v>
       </c>
       <c r="C4">
-        <v>10.30221136720969</v>
+        <v>13.54155094235785</v>
       </c>
       <c r="D4">
-        <v>4.965917510826777</v>
+        <v>3.573568873404549</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.81820148456503</v>
+        <v>22.12988010693203</v>
       </c>
       <c r="G4">
-        <v>33.46245979942656</v>
+        <v>30.6215996645763</v>
       </c>
       <c r="H4">
-        <v>15.24354287142106</v>
+        <v>10.12040902472928</v>
       </c>
       <c r="I4">
-        <v>23.61347721000709</v>
+        <v>15.62116676829574</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.86202135188264</v>
+        <v>6.616846486492214</v>
       </c>
       <c r="M4">
-        <v>15.16731218757312</v>
+        <v>11.38669530171566</v>
       </c>
       <c r="N4">
-        <v>18.27717364278233</v>
+        <v>12.21946911799925</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.4675744116358</v>
+        <v>18.14661745360074</v>
       </c>
       <c r="C5">
-        <v>10.20858290751569</v>
+        <v>13.32575434521674</v>
       </c>
       <c r="D5">
-        <v>4.96509641906095</v>
+        <v>3.571525047338101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.7982543615741</v>
+        <v>21.89253328868475</v>
       </c>
       <c r="G5">
-        <v>33.41277521257366</v>
+        <v>30.23472533475585</v>
       </c>
       <c r="H5">
-        <v>15.25197571479289</v>
+        <v>10.08669338338746</v>
       </c>
       <c r="I5">
-        <v>23.63516327514508</v>
+        <v>15.6092845266604</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.86692996637586</v>
+        <v>6.60348083263526</v>
       </c>
       <c r="M5">
-        <v>15.14825688947404</v>
+        <v>11.24097174883503</v>
       </c>
       <c r="N5">
-        <v>18.29489763923105</v>
+        <v>12.27835649490239</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.44700527082719</v>
+        <v>18.08071089611549</v>
       </c>
       <c r="C6">
-        <v>10.19291867488946</v>
+        <v>13.28958309392559</v>
       </c>
       <c r="D6">
-        <v>4.964961232461156</v>
+        <v>3.571187703908143</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.79507464553622</v>
+        <v>21.85322505663933</v>
       </c>
       <c r="G6">
-        <v>33.40471802920229</v>
+        <v>30.17055897835407</v>
       </c>
       <c r="H6">
-        <v>15.25342821153426</v>
+        <v>10.08122019034713</v>
       </c>
       <c r="I6">
-        <v>23.63885017062447</v>
+        <v>15.6075501167802</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.86776913822684</v>
+        <v>6.601311140268851</v>
       </c>
       <c r="M6">
-        <v>15.1451330219801</v>
+        <v>11.21667039827093</v>
       </c>
       <c r="N6">
-        <v>18.29786915551216</v>
+        <v>12.2881791300164</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.58943667318811</v>
+        <v>18.53360928929478</v>
       </c>
       <c r="C7">
-        <v>10.30095658002737</v>
+        <v>13.53866338132643</v>
       </c>
       <c r="D7">
-        <v>4.965906360078102</v>
+        <v>3.573541174471571</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.81792359696381</v>
+        <v>22.12667247592028</v>
       </c>
       <c r="G7">
-        <v>33.46177683168047</v>
+        <v>30.61637757173852</v>
       </c>
       <c r="H7">
-        <v>15.24365309690754</v>
+        <v>10.11994589890835</v>
       </c>
       <c r="I7">
-        <v>23.61376391122245</v>
+        <v>15.62099040896895</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.8620859355707</v>
+        <v>6.616662896515786</v>
       </c>
       <c r="M7">
-        <v>15.16705251226622</v>
+        <v>11.38473713722475</v>
       </c>
       <c r="N7">
-        <v>18.27741076786245</v>
+        <v>12.2202603342163</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.20809305775867</v>
+        <v>20.41985734558892</v>
       </c>
       <c r="C8">
-        <v>10.76007786051908</v>
+        <v>14.58802277013956</v>
       </c>
       <c r="D8">
-        <v>4.970242685496525</v>
+        <v>3.584210565985508</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.93791131313776</v>
+        <v>23.34602235740551</v>
       </c>
       <c r="G8">
-        <v>33.74127979083777</v>
+        <v>32.59048933111296</v>
       </c>
       <c r="H8">
-        <v>15.20812434685723</v>
+        <v>10.3093207108708</v>
       </c>
       <c r="I8">
-        <v>23.51559150469898</v>
+        <v>15.71620684501175</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.84050976494843</v>
+        <v>6.691694097676209</v>
       </c>
       <c r="M8">
-        <v>15.26952397660789</v>
+        <v>12.10984589962407</v>
       </c>
       <c r="N8">
-        <v>18.19125874561609</v>
+        <v>11.92679620889992</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.37347171382401</v>
+        <v>23.72186960096002</v>
       </c>
       <c r="C9">
-        <v>11.59223655185036</v>
+        <v>16.46328334164931</v>
       </c>
       <c r="D9">
-        <v>4.979321157225701</v>
+        <v>3.606052457392825</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.24089130024068</v>
+        <v>25.7635100199725</v>
       </c>
       <c r="G9">
-        <v>34.38537714873328</v>
+        <v>36.45469534225801</v>
       </c>
       <c r="H9">
-        <v>15.16591742959815</v>
+        <v>10.74939383646031</v>
       </c>
       <c r="I9">
-        <v>23.36843273800713</v>
+        <v>16.04324650042556</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.8107798187471</v>
+        <v>6.865593404670696</v>
       </c>
       <c r="M9">
-        <v>15.49005466915034</v>
+        <v>13.50448846022229</v>
       </c>
       <c r="N9">
-        <v>18.03704290897214</v>
+        <v>11.37157827344651</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.1908758352347</v>
+        <v>25.91244484572541</v>
       </c>
       <c r="C10">
-        <v>12.15846224946766</v>
+        <v>17.7285953630352</v>
       </c>
       <c r="D10">
-        <v>4.986324058140927</v>
+        <v>3.622578778235939</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.50341624393025</v>
+        <v>27.54211635295208</v>
       </c>
       <c r="G10">
-        <v>34.91330855392459</v>
+        <v>39.26872578646113</v>
       </c>
       <c r="H10">
-        <v>15.15174730016273</v>
+        <v>11.1163231727659</v>
       </c>
       <c r="I10">
-        <v>23.28825383375938</v>
+        <v>16.37876177450334</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.79659735028879</v>
+        <v>7.010132404829584</v>
       </c>
       <c r="M10">
-        <v>15.66299471769649</v>
+        <v>14.71700043784182</v>
       </c>
       <c r="N10">
-        <v>17.93261996911379</v>
+        <v>10.9737761152572</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55256866878983</v>
+        <v>26.85938152696187</v>
       </c>
       <c r="C11">
-        <v>12.40562512250402</v>
+        <v>18.27993267495721</v>
       </c>
       <c r="D11">
-        <v>4.989578452455051</v>
+        <v>3.630186201486223</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.63116731956809</v>
+        <v>28.34980129865162</v>
       </c>
       <c r="G11">
-        <v>35.16443608934577</v>
+        <v>40.54075674590488</v>
       </c>
       <c r="H11">
-        <v>15.14897218648802</v>
+        <v>11.29303763916162</v>
       </c>
       <c r="I11">
-        <v>23.25790192863971</v>
+        <v>16.5540051138448</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.79180555523299</v>
+        <v>7.079618077348497</v>
       </c>
       <c r="M11">
-        <v>15.74380755154756</v>
+        <v>15.24209883222239</v>
       </c>
       <c r="N11">
-        <v>17.88702221980776</v>
+        <v>10.79446860508239</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.6879474961472</v>
+        <v>27.21096372152034</v>
       </c>
       <c r="C12">
-        <v>12.49767769076698</v>
+        <v>18.48525159185164</v>
       </c>
       <c r="D12">
-        <v>4.990820365954947</v>
+        <v>3.633078738507022</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.68070725545829</v>
+        <v>28.65534215624157</v>
       </c>
       <c r="G12">
-        <v>35.26102502619122</v>
+        <v>41.02115881163733</v>
       </c>
       <c r="H12">
-        <v>15.14844986295665</v>
+        <v>11.36138834247091</v>
       </c>
       <c r="I12">
-        <v>23.24729302372407</v>
+        <v>16.62376579968461</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.7902293262656</v>
+        <v>7.106474220640956</v>
       </c>
       <c r="M12">
-        <v>15.77469674464882</v>
+        <v>15.43720148264936</v>
       </c>
       <c r="N12">
-        <v>17.87002787612824</v>
+        <v>10.72676006614217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.65886367728815</v>
+        <v>27.1355535542994</v>
       </c>
       <c r="C13">
-        <v>12.4779217870702</v>
+        <v>18.4411857970845</v>
       </c>
       <c r="D13">
-        <v>4.990552478552345</v>
+        <v>3.63245527101365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.66998677135223</v>
+        <v>28.58955356494871</v>
       </c>
       <c r="G13">
-        <v>35.24015788487949</v>
+        <v>40.91775408484583</v>
       </c>
       <c r="H13">
-        <v>15.14853883986467</v>
+        <v>11.3466036712589</v>
       </c>
       <c r="I13">
-        <v>23.24953842705024</v>
+        <v>16.60858808584597</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.79055820262762</v>
+        <v>7.100665993429453</v>
       </c>
       <c r="M13">
-        <v>15.76803177052389</v>
+        <v>15.39534788143929</v>
       </c>
       <c r="N13">
-        <v>17.87367581272009</v>
+        <v>10.74133458185008</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.56373883948282</v>
+        <v>26.88844599565295</v>
       </c>
       <c r="C14">
-        <v>12.41322949646187</v>
+        <v>18.29689352814179</v>
       </c>
       <c r="D14">
-        <v>4.989680436077084</v>
+        <v>3.630423942014083</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.63521988813893</v>
+        <v>28.3749450345132</v>
       </c>
       <c r="G14">
-        <v>35.17235310838582</v>
+        <v>40.58030597076488</v>
       </c>
       <c r="H14">
-        <v>15.14891861893286</v>
+        <v>11.29863203413602</v>
       </c>
       <c r="I14">
-        <v>23.25701137279368</v>
+        <v>16.5596754033998</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.79167110399438</v>
+        <v>7.081816618951101</v>
       </c>
       <c r="M14">
-        <v>15.746343190486</v>
+        <v>15.25822461148469</v>
       </c>
       <c r="N14">
-        <v>17.8856186307261</v>
+        <v>10.78889462781481</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.50526199609681</v>
+        <v>26.7361774357476</v>
       </c>
       <c r="C15">
-        <v>12.37340146798354</v>
+        <v>18.20806076102366</v>
       </c>
       <c r="D15">
-        <v>4.989147517836753</v>
+        <v>3.629181197654797</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.61407462031816</v>
+        <v>28.24344807324918</v>
       </c>
       <c r="G15">
-        <v>35.13101249787173</v>
+        <v>40.37343909897568</v>
       </c>
       <c r="H15">
-        <v>15.14922009215347</v>
+        <v>11.269435351132</v>
       </c>
       <c r="I15">
-        <v>23.26170410749558</v>
+        <v>16.53016202000035</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.79238381239852</v>
+        <v>7.070341801089665</v>
       </c>
       <c r="M15">
-        <v>15.7330950755573</v>
+        <v>15.17374757668818</v>
       </c>
       <c r="N15">
-        <v>17.8929694032114</v>
+        <v>10.81805000274987</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.16702296891215</v>
+        <v>25.84957346216826</v>
       </c>
       <c r="C16">
-        <v>12.14209601433011</v>
+        <v>17.69207805873798</v>
       </c>
       <c r="D16">
-        <v>4.986112730002554</v>
+        <v>3.622083318439683</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.49523212128922</v>
+        <v>27.48929344402585</v>
       </c>
       <c r="G16">
-        <v>34.89711032381386</v>
+        <v>39.18542028787485</v>
       </c>
       <c r="H16">
-        <v>15.15200259413012</v>
+        <v>11.10497362197757</v>
       </c>
       <c r="I16">
-        <v>23.29036097123453</v>
+        <v>16.36777705725008</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.79694387639152</v>
+        <v>7.005667038545771</v>
       </c>
       <c r="M16">
-        <v>15.65775473281232</v>
+        <v>14.68215679573126</v>
       </c>
       <c r="N16">
-        <v>17.93563810074843</v>
+        <v>10.98552367190399</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.95683021754385</v>
+        <v>25.293062486728</v>
       </c>
       <c r="C17">
-        <v>11.99749608606909</v>
+        <v>17.36934108968049</v>
       </c>
       <c r="D17">
-        <v>4.984268350217596</v>
+        <v>3.617751089494181</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.4244354693027</v>
+        <v>27.02618994395546</v>
       </c>
       <c r="G17">
-        <v>34.75636906024148</v>
+        <v>38.45442337216186</v>
       </c>
       <c r="H17">
-        <v>15.15465036763205</v>
+        <v>11.00660753928572</v>
       </c>
       <c r="I17">
-        <v>23.30951219799558</v>
+        <v>16.27405857409859</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.80016622185868</v>
+        <v>6.966952085073062</v>
       </c>
       <c r="M17">
-        <v>15.61206970858768</v>
+        <v>14.37384577076118</v>
       </c>
       <c r="N17">
-        <v>17.9623008433738</v>
+        <v>11.0886550437767</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83498438412391</v>
+        <v>24.96829871192351</v>
       </c>
       <c r="C18">
-        <v>11.91334792489677</v>
+        <v>17.18142526752468</v>
       </c>
       <c r="D18">
-        <v>4.983214002123826</v>
+        <v>3.615267787867422</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.38450110766103</v>
+        <v>26.75969571108334</v>
       </c>
       <c r="G18">
-        <v>34.67645618853174</v>
+        <v>38.03321463631395</v>
       </c>
       <c r="H18">
-        <v>15.15651880367099</v>
+        <v>10.95095060737381</v>
       </c>
       <c r="I18">
-        <v>23.32110345262678</v>
+        <v>16.22227446668956</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.80217589187105</v>
+        <v>6.945035354036197</v>
       </c>
       <c r="M18">
-        <v>15.58599574170109</v>
+        <v>14.19401673225993</v>
       </c>
       <c r="N18">
-        <v>17.97781591458396</v>
+        <v>11.14813221526686</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.79357066742994</v>
+        <v>24.85753290858154</v>
       </c>
       <c r="C19">
-        <v>11.8846902725368</v>
+        <v>17.11740695947116</v>
       </c>
       <c r="D19">
-        <v>4.98285814306247</v>
+        <v>3.614428477740736</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.37111601101071</v>
+        <v>26.66944721716728</v>
       </c>
       <c r="G19">
-        <v>34.64957983094676</v>
+        <v>37.89047544281183</v>
       </c>
       <c r="H19">
-        <v>15.15721073941997</v>
+        <v>10.93226353406209</v>
       </c>
       <c r="I19">
-        <v>23.32512683849269</v>
+        <v>16.20510082071505</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.80288317993124</v>
+        <v>6.937674832708613</v>
       </c>
       <c r="M19">
-        <v>15.57720301105652</v>
+        <v>14.13269894542524</v>
       </c>
       <c r="N19">
-        <v>17.9830998995106</v>
+        <v>11.16829879154661</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.97930472733818</v>
+        <v>25.35278682015925</v>
       </c>
       <c r="C20">
-        <v>12.01299056848937</v>
+        <v>17.40393343348149</v>
       </c>
       <c r="D20">
-        <v>4.984464018313046</v>
+        <v>3.61821139334993</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.4318907842946</v>
+        <v>27.0755024281317</v>
       </c>
       <c r="G20">
-        <v>34.7712444053715</v>
+        <v>38.53231892408348</v>
       </c>
       <c r="H20">
-        <v>15.15433274304306</v>
+        <v>11.01698332456269</v>
       </c>
       <c r="I20">
-        <v>23.30741387320608</v>
+        <v>16.28381453672739</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.79980702760123</v>
+        <v>6.971036976128256</v>
       </c>
       <c r="M20">
-        <v>15.61691211246976</v>
+        <v>14.40692393525864</v>
       </c>
       <c r="N20">
-        <v>17.95944399504615</v>
+        <v>11.07766043163987</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.59172330958003</v>
+        <v>26.96121647721242</v>
       </c>
       <c r="C21">
-        <v>12.43227338680802</v>
+        <v>18.33936928803415</v>
       </c>
       <c r="D21">
-        <v>4.989936319749264</v>
+        <v>3.631020281012719</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.64540047469296</v>
+        <v>28.43798985902914</v>
       </c>
       <c r="G21">
-        <v>35.19222920584782</v>
+        <v>40.6794582346501</v>
       </c>
       <c r="H21">
-        <v>15.1487927200869</v>
+        <v>11.3126833819241</v>
       </c>
       <c r="I21">
-        <v>23.25479234337838</v>
+        <v>16.57394882376553</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.79133775322722</v>
+        <v>7.087338335293743</v>
       </c>
       <c r="M21">
-        <v>15.75270602783371</v>
+        <v>15.29860200131105</v>
       </c>
       <c r="N21">
-        <v>17.88210334991791</v>
+        <v>10.77492028574856</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98267803555742</v>
+        <v>27.97166770674479</v>
       </c>
       <c r="C22">
-        <v>12.69729028757458</v>
+        <v>18.93058321578873</v>
       </c>
       <c r="D22">
-        <v>4.993568262974951</v>
+        <v>3.639459862534196</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.7917049239385</v>
+        <v>29.32661947525945</v>
       </c>
       <c r="G22">
-        <v>35.47602420657</v>
+        <v>42.07522607185428</v>
       </c>
       <c r="H22">
-        <v>15.14825288441574</v>
+        <v>11.51430448423756</v>
       </c>
       <c r="I22">
-        <v>23.22555968605019</v>
+        <v>16.78345011404631</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.7871914844836</v>
+        <v>7.166518869749222</v>
       </c>
       <c r="M22">
-        <v>15.84311883859615</v>
+        <v>15.85959637620002</v>
       </c>
       <c r="N22">
-        <v>17.83314468065243</v>
+        <v>10.57815309488465</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.77490723291657</v>
+        <v>27.43605618780628</v>
       </c>
       <c r="C23">
-        <v>12.55668345295368</v>
+        <v>18.61687168551186</v>
       </c>
       <c r="D23">
-        <v>4.991624862565872</v>
+        <v>3.63494957166324</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.71301251310339</v>
+        <v>28.85253262174287</v>
       </c>
       <c r="G23">
-        <v>35.32379426777555</v>
+        <v>41.33098666339646</v>
       </c>
       <c r="H23">
-        <v>15.14825896375124</v>
+        <v>11.40592173238025</v>
       </c>
       <c r="I23">
-        <v>23.24068832357654</v>
+        <v>16.66976871528053</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.78927748172408</v>
+        <v>7.123966338027901</v>
       </c>
       <c r="M23">
-        <v>15.79471858853171</v>
+        <v>15.56215142664337</v>
       </c>
       <c r="N23">
-        <v>17.85912999856528</v>
+        <v>10.68308794518955</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.96914711644719</v>
+        <v>25.32580046604378</v>
       </c>
       <c r="C24">
-        <v>12.00598867343476</v>
+        <v>17.38830161892946</v>
       </c>
       <c r="D24">
-        <v>4.984375537998297</v>
+        <v>3.61800326698362</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.42851784281267</v>
+        <v>27.05320902345315</v>
       </c>
       <c r="G24">
-        <v>34.76451613682535</v>
+        <v>38.49710529006734</v>
       </c>
       <c r="H24">
-        <v>15.15447526274243</v>
+        <v>11.01228964597542</v>
       </c>
       <c r="I24">
-        <v>23.30836071645545</v>
+        <v>16.2793973490177</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.79996892994571</v>
+        <v>6.969189135187872</v>
       </c>
       <c r="M24">
-        <v>15.6147222652459</v>
+        <v>14.39197732863297</v>
       </c>
       <c r="N24">
-        <v>17.96073499570139</v>
+        <v>11.08263051428916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06437962617909</v>
+        <v>22.87041914069309</v>
       </c>
       <c r="C25">
-        <v>11.37481366097133</v>
+        <v>15.97570932994259</v>
       </c>
       <c r="D25">
-        <v>4.976805449631449</v>
+        <v>3.600054016453909</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.15180690144591</v>
+        <v>25.10825429749588</v>
       </c>
       <c r="G25">
-        <v>34.20122582373402</v>
+        <v>35.41252084241811</v>
       </c>
       <c r="H25">
-        <v>15.17438417475361</v>
+        <v>10.6227960219774</v>
       </c>
       <c r="I25">
-        <v>23.40335666808934</v>
+        <v>15.93872279061837</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.81747643131619</v>
+        <v>6.815633580764604</v>
       </c>
       <c r="M25">
-        <v>15.42840128529821</v>
+        <v>13.10409100941213</v>
       </c>
       <c r="N25">
-        <v>18.07719594383341</v>
+        <v>11.51983224045301</v>
       </c>
       <c r="O25">
         <v>0</v>
